--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251026_201248.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251026_201248.xlsx
@@ -4281,7 +4281,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
